--- a/docs/6 - Documentation _ Calculators/MPPT Design Calculator/TechBuilder - MPPT CALCULATOR.xlsx
+++ b/docs/6 - Documentation _ Calculators/MPPT Design Calculator/TechBuilder - MPPT CALCULATOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="13211" tabRatio="660" activeTab="2"/>
+    <workbookView windowWidth="22800" windowHeight="13211" tabRatio="660"/>
   </bookViews>
   <sheets>
     <sheet name="MPPT BUCK DESIGN CALCULATOR" sheetId="1" r:id="rId1"/>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>%I</t>
     </r>
     <r>
@@ -274,12 +280,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>Capacitance of your MPPT's output capacitor to achieve a ripple voltage less than or equal to V</t>
     </r>
     <r>
@@ -308,7 +308,7 @@
     <t>Imp(A)</t>
   </si>
   <si>
-    <t>~2~</t>
+    <t>~2~4</t>
   </si>
   <si>
     <t>~20.7700746204897</t>
@@ -317,10 +317,10 @@
     <t>4~8</t>
   </si>
   <si>
-    <t>8~</t>
+    <t>8~16</t>
   </si>
   <si>
-    <t>16~</t>
+    <t>16~32</t>
   </si>
   <si>
     <t>32~</t>
@@ -1470,10 +1470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1569,23 +1569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,22 +1578,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,22 +1593,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,14 +1608,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1661,22 +1616,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1692,10 +1631,71 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1785,31 +1785,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,7 +1863,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,19 +1893,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,43 +1929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,19 +1947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,37 +1965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,16 +2412,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2443,6 +2443,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2453,30 +2468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2495,8 +2486,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2509,16 +2500,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2527,137 +2527,137 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2786,9 +2786,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4111,8 +4108,8 @@
   <sheetPr/>
   <dimension ref="B1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="B29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -4156,12 +4153,12 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="2:27">
       <c r="B2" s="1"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4186,10 +4183,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="2:27">
       <c r="B3" s="1"/>
-      <c r="C3" s="65"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="66"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4214,16 +4211,16 @@
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:27">
       <c r="B4" s="1"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="68" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1"/>
@@ -4250,16 +4247,16 @@
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="2:27">
       <c r="B5" s="1"/>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="54">
         <v>33.24</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1"/>
@@ -4286,16 +4283,16 @@
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="2:27">
       <c r="B6" s="1"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>32</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="55" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1"/>
@@ -4322,16 +4319,16 @@
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="2:27">
       <c r="B7" s="1"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>25.55</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1"/>
@@ -4358,16 +4355,16 @@
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="2:27">
       <c r="B8" s="1"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>39.0625</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1"/>
@@ -4394,16 +4391,16 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="2:27">
       <c r="B9" s="1"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="72" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="1"/>
@@ -4430,16 +4427,16 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="2:27">
       <c r="B10" s="1"/>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <v>0.05</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1"/>
@@ -4466,16 +4463,16 @@
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="2:27">
       <c r="B11" s="1"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="54">
         <v>35</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4500,16 +4497,16 @@
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="2:27">
       <c r="B12" s="1"/>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <v>100</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="1"/>
@@ -4536,16 +4533,16 @@
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="2:27">
       <c r="B13" s="1"/>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="72" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1"/>
@@ -4572,17 +4569,17 @@
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="2:27">
       <c r="B14" s="1"/>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="54">
         <f>D5*D6</f>
         <v>1063.68</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="55" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1"/>
@@ -4609,17 +4606,17 @@
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="2:27">
       <c r="B15" s="1"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="54">
         <f>(D7/(D5*(D12/100)))*100</f>
         <v>76.8652226233454</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="55" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1"/>
@@ -4646,17 +4643,17 @@
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="2:27">
       <c r="B16" s="1"/>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="54">
         <f>((D5*D6)/D7)*(D11/100)</f>
         <v>14.5709589041096</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="55" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="1"/>
@@ -4683,17 +4680,17 @@
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="2:27">
       <c r="B17" s="1"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <f>(D14/D7)+((((D5*D6)/D7)*(D11/100))/2)</f>
         <v>48.9167906066536</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="57" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="1"/>
@@ -4719,18 +4716,18 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B18" s="61"/>
-      <c r="C18" s="74" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="56">
         <f>((D5-D7)*(D7/(D5*(D12/100)))/((D8*1000)*((D14/D7)*(D11/100)))*1000000)</f>
         <v>10.3850373102449</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="57" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1"/>
@@ -4756,18 +4753,18 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B19" s="61"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <f>(((D5*D6)/D7)*(D11/100))/(8*D8*1000*D10)*1000000</f>
         <v>932.541369863014</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="76" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="1"/>
@@ -4793,7 +4790,7 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B20" s="78"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4821,8 +4818,8 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="2:27">
-      <c r="B21" s="78"/>
-      <c r="C21" s="79" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="78" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="1"/>
@@ -4848,7 +4845,7 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B22" s="78"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4876,7 +4873,7 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B23" s="78"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4904,11 +4901,11 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B24" s="78"/>
-      <c r="C24" s="55">
+      <c r="B24" s="77"/>
+      <c r="C24" s="54">
         <v>33.24</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="54">
         <v>31.57</v>
       </c>
       <c r="E24" s="1">
@@ -4938,11 +4935,11 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B25" s="78"/>
-      <c r="C25" s="55">
+      <c r="B25" s="77"/>
+      <c r="C25" s="54">
         <v>58.17</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="54">
         <v>18.04</v>
       </c>
       <c r="E25" s="1">
@@ -4972,11 +4969,11 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B26" s="78"/>
-      <c r="C26" s="55">
+      <c r="B26" s="77"/>
+      <c r="C26" s="54">
         <v>116.34</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="54">
         <v>9.02</v>
       </c>
       <c r="E26" s="1">
@@ -5006,7 +5003,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B27" s="78"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5034,7 +5031,7 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B28" s="78"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5070,7 +5067,7 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="79" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="1">
@@ -5108,10 +5105,10 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="54">
         <v>4</v>
       </c>
       <c r="D30" s="1">
@@ -5146,7 +5143,7 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="77" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="1">
@@ -5184,7 +5181,7 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="77" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1">
@@ -5222,7 +5219,7 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="1">
@@ -5265,7 +5262,7 @@
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B35" s="78"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="1">
         <v>2</v>
       </c>
@@ -5304,8 +5301,8 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B36" s="78"/>
-      <c r="C36" s="55">
+      <c r="B36" s="77"/>
+      <c r="C36" s="54">
         <v>4</v>
       </c>
       <c r="D36" s="1">
@@ -5343,7 +5340,7 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B37" s="78"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="1">
         <v>8</v>
       </c>
@@ -5382,7 +5379,7 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B38" s="78"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="1">
         <v>16</v>
       </c>
@@ -5421,8 +5418,8 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B39" s="78"/>
-      <c r="C39" s="55">
+      <c r="B39" s="77"/>
+      <c r="C39" s="54">
         <v>32</v>
       </c>
       <c r="D39" s="1">
@@ -5460,7 +5457,7 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B40" s="78"/>
+      <c r="B40" s="77"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5487,7 +5484,7 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="2:27">
-      <c r="B41" s="78"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5575,7 +5572,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="81" t="s">
+      <c r="F44" s="80" t="s">
         <v>48</v>
       </c>
       <c r="G44" s="1"/>
@@ -32385,7 +32382,7 @@
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
@@ -32399,20 +32396,20 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1" spans="2:4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="2:4">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>52</v>
       </c>
     </row>
@@ -32420,11 +32417,11 @@
       <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <f t="shared" ref="C4:C19" si="0">2^B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <f t="shared" ref="D4:D19" si="1">(80000000/(2^B4))/1000</f>
         <v>40000</v>
       </c>
@@ -32433,11 +32430,11 @@
       <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="54">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="55">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
@@ -32446,11 +32443,11 @@
       <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -32459,11 +32456,11 @@
       <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="55">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
@@ -32472,11 +32469,11 @@
       <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="55">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
@@ -32485,11 +32482,11 @@
       <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="55">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
@@ -32498,11 +32495,11 @@
       <c r="B10" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -32511,11 +32508,11 @@
       <c r="B11" s="18">
         <v>8</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="56">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <f t="shared" si="1"/>
         <v>312.5</v>
       </c>
@@ -32524,11 +32521,11 @@
       <c r="B12" s="18">
         <v>9</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="56">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <f t="shared" si="1"/>
         <v>156.25</v>
       </c>
@@ -32537,11 +32534,11 @@
       <c r="B13" s="18">
         <v>10</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="56">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <f t="shared" si="1"/>
         <v>78.125</v>
       </c>
@@ -32550,11 +32547,11 @@
       <c r="B14" s="18">
         <v>11</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="56">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <f t="shared" si="1"/>
         <v>39.0625</v>
       </c>
@@ -32563,11 +32560,11 @@
       <c r="B15" s="18">
         <v>12</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="56">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="57">
         <f t="shared" si="1"/>
         <v>19.53125</v>
       </c>
@@ -32576,11 +32573,11 @@
       <c r="B16" s="14">
         <v>13</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <f t="shared" si="0"/>
         <v>8192</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="55">
         <f t="shared" si="1"/>
         <v>9.765625</v>
       </c>
@@ -32589,11 +32586,11 @@
       <c r="B17" s="14">
         <v>14</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <f t="shared" si="0"/>
         <v>16384</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="55">
         <f t="shared" si="1"/>
         <v>4.8828125</v>
       </c>
@@ -32602,11 +32599,11 @@
       <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <f t="shared" si="0"/>
         <v>32768</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="55">
         <f t="shared" si="1"/>
         <v>2.44140625</v>
       </c>
@@ -32615,11 +32612,11 @@
       <c r="B19" s="20">
         <v>16</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="58">
         <f t="shared" si="0"/>
         <v>65536</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="59">
         <f t="shared" si="1"/>
         <v>1.220703125</v>
       </c>
@@ -32627,7 +32624,7 @@
     <row r="20" ht="14.25" customHeight="1" spans="2:4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="61"/>
+      <c r="D20" s="60"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="2:3">
       <c r="B21" s="1"/>
@@ -33639,8 +33636,8 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -33866,7 +33863,7 @@
       <c r="C21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="32" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="32" t="s">
@@ -33934,7 +33931,7 @@
       <c r="C25" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="32" t="s">
         <v>95</v>
       </c>
       <c r="E25" s="32" t="s">
@@ -33977,13 +33974,13 @@
       </c>
     </row>
     <row r="28" ht="14.4" spans="1:5">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
     </row>
     <row r="29" ht="14.4" spans="1:5">
       <c r="A29" s="23" t="s">
@@ -33996,7 +33993,7 @@
       <c r="C29" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="32" t="s">
         <v>104</v>
       </c>
       <c r="E29" s="32" t="s">
@@ -34073,7 +34070,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -34476,7 +34473,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1"/>
